--- a/sputnik/personal/uch/uch11.xlsx
+++ b/sputnik/personal/uch/uch11.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Оплачено</t>
   </si>
@@ -24,9 +24,6 @@
     <t xml:space="preserve">Начислено </t>
   </si>
   <si>
-    <t>Наименование</t>
-  </si>
-  <si>
     <t>Начислен членский взнос 2018/2019 (с 01.05.2018 по 30.04.2019)</t>
   </si>
   <si>
@@ -37,6 +34,12 @@
   </si>
   <si>
     <t>Оплачен членский взнос 2019/2020 (с 01.05.2019 по 30.04.2020)</t>
+  </si>
+  <si>
+    <t>Дата</t>
+  </si>
+  <si>
+    <t>Наименование / садовый участок №11</t>
   </si>
 </sst>
 </file>
@@ -151,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -171,11 +174,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -486,7 +496,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D7"/>
+      <selection activeCell="A3" sqref="A3:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -500,10 +510,12 @@
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="11"/>
+      <c r="A2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>7</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
@@ -512,11 +524,11 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="11">
         <v>43221</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="6">
         <v>10413.48</v>
@@ -524,11 +536,11 @@
       <c r="D3" s="6"/>
     </row>
     <row r="4" spans="1:4" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="11">
         <v>43288</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6">
@@ -536,11 +548,11 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="11">
         <v>43586</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="7">
         <v>10265.64</v>
@@ -548,11 +560,11 @@
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+      <c r="A6" s="12">
         <v>43648</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="7">
@@ -572,9 +584,6 @@
       <c r="D8" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:B2"/>
-  </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>

--- a/sputnik/personal/uch/uch11.xlsx
+++ b/sputnik/personal/uch/uch11.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Наименование / садовый участок №11</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
   </si>
 </sst>
 </file>
@@ -154,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -186,6 +189,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -496,7 +500,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -572,9 +576,15 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
+      <c r="A7" s="13">
+        <v>43952</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="8">
+        <v>11550</v>
+      </c>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">

--- a/sputnik/personal/uch/uch11.xlsx
+++ b/sputnik/personal/uch/uch11.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Оплачено</t>
   </si>
@@ -157,7 +157,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -190,6 +190,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -497,10 +499,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -582,16 +584,34 @@
       <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="14">
         <v>11550</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="A8" s="13">
+        <v>44018</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14">
+        <v>11550</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch11.xlsx
+++ b/sputnik/personal/uch/uch11.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>Начислен членский взнос 2020/2021 (с 01.05.2020 по 30.04.2021)</t>
+  </si>
+  <si>
+    <t>Начислен членский взнос 2021/2022 (с 01.05.2021 по 30.04.2022)</t>
   </si>
 </sst>
 </file>
@@ -157,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -191,7 +194,6 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -499,10 +501,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A9" sqref="A9:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -602,16 +604,46 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
+      <c r="A9" s="13">
+        <v>44317</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="14">
+        <v>12316.92</v>
+      </c>
+      <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>

--- a/sputnik/personal/uch/uch11.xlsx
+++ b/sputnik/personal/uch/uch11.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Оплачено</t>
   </si>
@@ -504,7 +504,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:D14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -616,10 +616,16 @@
       <c r="D9" s="14"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
+      <c r="A10" s="13">
+        <v>44411</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="D10" s="14">
+        <v>12316.92</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
